--- a/life_expectancy_new.xlsx
+++ b/life_expectancy_new.xlsx
@@ -387,9 +387,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -874,6 +871,9 @@
   </si>
   <si>
     <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Congo, DRC</t>
   </si>
 </sst>
 </file>
@@ -1320,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K778"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191:A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="83" spans="1:11" ht="14" thickBot="1">
       <c r="A83" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>8</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="99" spans="1:11" ht="14" thickBot="1">
       <c r="A99" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>8</v>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="187" spans="1:11" ht="14" thickBot="1">
       <c r="A187" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>8</v>
@@ -7681,7 +7681,7 @@
     </row>
     <row r="191" spans="1:11" ht="14" thickBot="1">
       <c r="A191" s="3" t="s">
-        <v>122</v>
+        <v>284</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>8</v>
@@ -7815,7 +7815,7 @@
     </row>
     <row r="195" spans="1:11" ht="14" thickBot="1">
       <c r="A195" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>8</v>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="199" spans="1:11" ht="14" thickBot="1">
       <c r="A199" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>8</v>
@@ -8083,7 +8083,7 @@
     </row>
     <row r="203" spans="1:11" ht="14" thickBot="1">
       <c r="A203" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>8</v>
@@ -8217,7 +8217,7 @@
     </row>
     <row r="207" spans="1:11" ht="14" thickBot="1">
       <c r="A207" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>8</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="211" spans="1:11" ht="14" thickBot="1">
       <c r="A211" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>8</v>
@@ -8485,7 +8485,7 @@
     </row>
     <row r="215" spans="1:11" ht="14" thickBot="1">
       <c r="A215" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>8</v>
@@ -8619,7 +8619,7 @@
     </row>
     <row r="219" spans="1:11" ht="14" thickBot="1">
       <c r="A219" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>8</v>
@@ -8753,7 +8753,7 @@
     </row>
     <row r="223" spans="1:11" ht="14" thickBot="1">
       <c r="A223" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>8</v>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="227" spans="1:11" ht="14" thickBot="1">
       <c r="A227" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>8</v>
@@ -8983,7 +8983,7 @@
         <v>66</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="14" thickBot="1">
@@ -9007,7 +9007,7 @@
         <v>26</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I230" s="2" t="s">
         <v>27</v>
@@ -9021,7 +9021,7 @@
     </row>
     <row r="231" spans="1:11" ht="14" thickBot="1">
       <c r="A231" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>8</v>
@@ -9155,7 +9155,7 @@
     </row>
     <row r="235" spans="1:11" ht="14" thickBot="1">
       <c r="A235" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>8</v>
@@ -9289,7 +9289,7 @@
     </row>
     <row r="239" spans="1:11" ht="14" thickBot="1">
       <c r="A239" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>8</v>
@@ -9423,7 +9423,7 @@
     </row>
     <row r="243" spans="1:11" ht="14" thickBot="1">
       <c r="A243" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>8</v>
@@ -9557,7 +9557,7 @@
     </row>
     <row r="247" spans="1:11" ht="14" thickBot="1">
       <c r="A247" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>8</v>
@@ -9691,7 +9691,7 @@
     </row>
     <row r="251" spans="1:11" ht="14" thickBot="1">
       <c r="A251" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>8</v>
@@ -9825,7 +9825,7 @@
     </row>
     <row r="255" spans="1:11" ht="14" thickBot="1">
       <c r="A255" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>8</v>
@@ -9959,7 +9959,7 @@
     </row>
     <row r="259" spans="1:11" ht="14" thickBot="1">
       <c r="A259" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>8</v>
@@ -10093,7 +10093,7 @@
     </row>
     <row r="263" spans="1:11" ht="14" thickBot="1">
       <c r="A263" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>8</v>
@@ -10227,7 +10227,7 @@
     </row>
     <row r="267" spans="1:11" ht="14" thickBot="1">
       <c r="A267" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>8</v>
@@ -10361,7 +10361,7 @@
     </row>
     <row r="271" spans="1:11" ht="14" thickBot="1">
       <c r="A271" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>8</v>
@@ -10495,7 +10495,7 @@
     </row>
     <row r="275" spans="1:11" ht="14" thickBot="1">
       <c r="A275" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>8</v>
@@ -10629,7 +10629,7 @@
     </row>
     <row r="279" spans="1:11" ht="14" thickBot="1">
       <c r="A279" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>8</v>
@@ -10763,7 +10763,7 @@
     </row>
     <row r="283" spans="1:11" ht="14" thickBot="1">
       <c r="A283" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>8</v>
@@ -10897,7 +10897,7 @@
     </row>
     <row r="287" spans="1:11" ht="14" thickBot="1">
       <c r="A287" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>8</v>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="291" spans="1:11" ht="14" thickBot="1">
       <c r="A291" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>8</v>
@@ -11165,7 +11165,7 @@
     </row>
     <row r="295" spans="1:11" ht="14" thickBot="1">
       <c r="A295" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>8</v>
@@ -11299,7 +11299,7 @@
     </row>
     <row r="299" spans="1:11" ht="14" thickBot="1">
       <c r="A299" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>8</v>
@@ -11433,7 +11433,7 @@
     </row>
     <row r="303" spans="1:11" ht="14" thickBot="1">
       <c r="A303" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>8</v>
@@ -11567,7 +11567,7 @@
     </row>
     <row r="307" spans="1:11" ht="14" thickBot="1">
       <c r="A307" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>8</v>
@@ -11701,7 +11701,7 @@
     </row>
     <row r="311" spans="1:11" ht="14" thickBot="1">
       <c r="A311" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>8</v>
@@ -11835,7 +11835,7 @@
     </row>
     <row r="315" spans="1:11" ht="14" thickBot="1">
       <c r="A315" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>8</v>
@@ -11969,7 +11969,7 @@
     </row>
     <row r="319" spans="1:11" ht="14" thickBot="1">
       <c r="A319" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>8</v>
@@ -12103,7 +12103,7 @@
     </row>
     <row r="323" spans="1:11" ht="14" thickBot="1">
       <c r="A323" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>8</v>
@@ -12237,7 +12237,7 @@
     </row>
     <row r="327" spans="1:11" ht="14" thickBot="1">
       <c r="A327" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>8</v>
@@ -12371,7 +12371,7 @@
     </row>
     <row r="331" spans="1:11" ht="14" thickBot="1">
       <c r="A331" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>8</v>
@@ -12505,7 +12505,7 @@
     </row>
     <row r="335" spans="1:11" ht="14" thickBot="1">
       <c r="A335" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>8</v>
@@ -12639,7 +12639,7 @@
     </row>
     <row r="339" spans="1:11" ht="14" thickBot="1">
       <c r="A339" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>8</v>
@@ -12773,7 +12773,7 @@
     </row>
     <row r="343" spans="1:11" ht="14" thickBot="1">
       <c r="A343" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>8</v>
@@ -12782,7 +12782,7 @@
         <v>82</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>55</v>
@@ -12791,7 +12791,7 @@
         <v>56</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H343" s="2" t="s">
         <v>54</v>
@@ -12815,7 +12815,7 @@
         <v>82</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>55</v>
@@ -12824,7 +12824,7 @@
         <v>56</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H344" s="2" t="s">
         <v>54</v>
@@ -12907,7 +12907,7 @@
     </row>
     <row r="347" spans="1:11" ht="14" thickBot="1">
       <c r="A347" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>8</v>
@@ -13041,7 +13041,7 @@
     </row>
     <row r="351" spans="1:11" ht="14" thickBot="1">
       <c r="A351" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>8</v>
@@ -13175,7 +13175,7 @@
     </row>
     <row r="355" spans="1:11" ht="14" thickBot="1">
       <c r="A355" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>8</v>
@@ -13309,7 +13309,7 @@
     </row>
     <row r="359" spans="1:11" ht="14" thickBot="1">
       <c r="A359" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>8</v>
@@ -13443,7 +13443,7 @@
     </row>
     <row r="363" spans="1:11" ht="14" thickBot="1">
       <c r="A363" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>8</v>
@@ -13577,7 +13577,7 @@
     </row>
     <row r="367" spans="1:11" ht="14" thickBot="1">
       <c r="A367" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>8</v>
@@ -13711,7 +13711,7 @@
     </row>
     <row r="371" spans="1:11" ht="14" thickBot="1">
       <c r="A371" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>8</v>
@@ -13845,7 +13845,7 @@
     </row>
     <row r="375" spans="1:11" ht="14" thickBot="1">
       <c r="A375" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>8</v>
@@ -13979,7 +13979,7 @@
     </row>
     <row r="379" spans="1:11" ht="14" thickBot="1">
       <c r="A379" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>8</v>
@@ -14113,7 +14113,7 @@
     </row>
     <row r="383" spans="1:11" ht="14" thickBot="1">
       <c r="A383" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>8</v>
@@ -14247,7 +14247,7 @@
     </row>
     <row r="387" spans="1:11" ht="14" thickBot="1">
       <c r="A387" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>8</v>
@@ -14381,7 +14381,7 @@
     </row>
     <row r="391" spans="1:11" ht="14" thickBot="1">
       <c r="A391" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>8</v>
@@ -14515,7 +14515,7 @@
     </row>
     <row r="395" spans="1:11" ht="14" thickBot="1">
       <c r="A395" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>8</v>
@@ -14649,7 +14649,7 @@
     </row>
     <row r="399" spans="1:11" ht="14" thickBot="1">
       <c r="A399" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>8</v>
@@ -14783,7 +14783,7 @@
     </row>
     <row r="403" spans="1:11" ht="14" thickBot="1">
       <c r="A403" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>8</v>
@@ -14917,7 +14917,7 @@
     </row>
     <row r="407" spans="1:11" ht="14" thickBot="1">
       <c r="A407" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>8</v>
@@ -15051,7 +15051,7 @@
     </row>
     <row r="411" spans="1:11" ht="14" thickBot="1">
       <c r="A411" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>8</v>
@@ -15185,7 +15185,7 @@
     </row>
     <row r="415" spans="1:11" ht="14" thickBot="1">
       <c r="A415" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>8</v>
@@ -15319,7 +15319,7 @@
     </row>
     <row r="419" spans="1:11" ht="14" thickBot="1">
       <c r="A419" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>8</v>
@@ -15453,7 +15453,7 @@
     </row>
     <row r="423" spans="1:11" ht="14" thickBot="1">
       <c r="A423" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>8</v>
@@ -15587,7 +15587,7 @@
     </row>
     <row r="427" spans="1:11" ht="14" thickBot="1">
       <c r="A427" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>8</v>
@@ -15721,7 +15721,7 @@
     </row>
     <row r="431" spans="1:11" ht="14" thickBot="1">
       <c r="A431" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>8</v>
@@ -15855,7 +15855,7 @@
     </row>
     <row r="435" spans="1:11" ht="14" thickBot="1">
       <c r="A435" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>8</v>
@@ -15989,7 +15989,7 @@
     </row>
     <row r="439" spans="1:11" ht="14" thickBot="1">
       <c r="A439" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>8</v>
@@ -16123,7 +16123,7 @@
     </row>
     <row r="443" spans="1:11" ht="14" thickBot="1">
       <c r="A443" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>8</v>
@@ -16257,7 +16257,7 @@
     </row>
     <row r="447" spans="1:11" ht="14" thickBot="1">
       <c r="A447" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>8</v>
@@ -16391,7 +16391,7 @@
     </row>
     <row r="451" spans="1:11" ht="14" thickBot="1">
       <c r="A451" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>8</v>
@@ -16525,7 +16525,7 @@
     </row>
     <row r="455" spans="1:11" ht="14" thickBot="1">
       <c r="A455" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>8</v>
@@ -16659,7 +16659,7 @@
     </row>
     <row r="459" spans="1:11" ht="14" thickBot="1">
       <c r="A459" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>8</v>
@@ -16793,7 +16793,7 @@
     </row>
     <row r="463" spans="1:11" ht="14" thickBot="1">
       <c r="A463" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>8</v>
@@ -16927,7 +16927,7 @@
     </row>
     <row r="467" spans="1:11" ht="14" thickBot="1">
       <c r="A467" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>8</v>
@@ -17061,7 +17061,7 @@
     </row>
     <row r="471" spans="1:11" ht="14" thickBot="1">
       <c r="A471" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>8</v>
@@ -17195,7 +17195,7 @@
     </row>
     <row r="475" spans="1:11" ht="14" thickBot="1">
       <c r="A475" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>8</v>
@@ -17329,7 +17329,7 @@
     </row>
     <row r="479" spans="1:11" ht="14" thickBot="1">
       <c r="A479" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>8</v>
@@ -17463,7 +17463,7 @@
     </row>
     <row r="483" spans="1:11" ht="14" thickBot="1">
       <c r="A483" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>8</v>
@@ -17597,7 +17597,7 @@
     </row>
     <row r="487" spans="1:11" ht="14" thickBot="1">
       <c r="A487" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>8</v>
@@ -17731,7 +17731,7 @@
     </row>
     <row r="491" spans="1:11" ht="14" thickBot="1">
       <c r="A491" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>8</v>
@@ -17865,7 +17865,7 @@
     </row>
     <row r="495" spans="1:11" ht="14" thickBot="1">
       <c r="A495" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>8</v>
@@ -17999,7 +17999,7 @@
     </row>
     <row r="499" spans="1:11" ht="14" thickBot="1">
       <c r="A499" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>8</v>
@@ -18133,7 +18133,7 @@
     </row>
     <row r="503" spans="1:11" ht="14" thickBot="1">
       <c r="A503" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>8</v>
@@ -18267,7 +18267,7 @@
     </row>
     <row r="507" spans="1:11" ht="14" thickBot="1">
       <c r="A507" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>8</v>
@@ -18401,7 +18401,7 @@
     </row>
     <row r="511" spans="1:11" ht="14" thickBot="1">
       <c r="A511" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>8</v>
@@ -18535,7 +18535,7 @@
     </row>
     <row r="515" spans="1:11" ht="14" thickBot="1">
       <c r="A515" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>8</v>
@@ -18669,7 +18669,7 @@
     </row>
     <row r="519" spans="1:11" ht="14" thickBot="1">
       <c r="A519" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>8</v>
@@ -18803,7 +18803,7 @@
     </row>
     <row r="523" spans="1:11" ht="14" thickBot="1">
       <c r="A523" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>8</v>
@@ -18937,7 +18937,7 @@
     </row>
     <row r="527" spans="1:11" ht="14" thickBot="1">
       <c r="A527" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>8</v>
@@ -19071,7 +19071,7 @@
     </row>
     <row r="531" spans="1:11" ht="14" thickBot="1">
       <c r="A531" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>8</v>
@@ -19205,7 +19205,7 @@
     </row>
     <row r="535" spans="1:11" ht="14" thickBot="1">
       <c r="A535" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>8</v>
@@ -19339,7 +19339,7 @@
     </row>
     <row r="539" spans="1:11" ht="14" thickBot="1">
       <c r="A539" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>8</v>
@@ -19473,7 +19473,7 @@
     </row>
     <row r="543" spans="1:11" ht="14" thickBot="1">
       <c r="A543" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>8</v>
@@ -19607,7 +19607,7 @@
     </row>
     <row r="547" spans="1:11" ht="14" thickBot="1">
       <c r="A547" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>8</v>
@@ -19741,7 +19741,7 @@
     </row>
     <row r="551" spans="1:11" ht="14" thickBot="1">
       <c r="A551" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>8</v>
@@ -19875,7 +19875,7 @@
     </row>
     <row r="555" spans="1:11" ht="14" thickBot="1">
       <c r="A555" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>8</v>
@@ -20009,7 +20009,7 @@
     </row>
     <row r="559" spans="1:11" ht="14" thickBot="1">
       <c r="A559" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>8</v>
@@ -20143,7 +20143,7 @@
     </row>
     <row r="563" spans="1:11" ht="14" thickBot="1">
       <c r="A563" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>8</v>
@@ -20277,7 +20277,7 @@
     </row>
     <row r="567" spans="1:11" ht="14" thickBot="1">
       <c r="A567" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>8</v>
@@ -20411,7 +20411,7 @@
     </row>
     <row r="571" spans="1:11" ht="14" thickBot="1">
       <c r="A571" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>8</v>
@@ -20545,7 +20545,7 @@
     </row>
     <row r="575" spans="1:11" ht="14" thickBot="1">
       <c r="A575" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>8</v>
@@ -20679,7 +20679,7 @@
     </row>
     <row r="579" spans="1:11" ht="14" thickBot="1">
       <c r="A579" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>8</v>
@@ -20813,7 +20813,7 @@
     </row>
     <row r="583" spans="1:11" ht="14" thickBot="1">
       <c r="A583" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>8</v>
@@ -20947,7 +20947,7 @@
     </row>
     <row r="587" spans="1:11" ht="14" thickBot="1">
       <c r="A587" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>8</v>
@@ -21081,7 +21081,7 @@
     </row>
     <row r="591" spans="1:11" ht="14" thickBot="1">
       <c r="A591" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>8</v>
@@ -21215,7 +21215,7 @@
     </row>
     <row r="595" spans="1:11" ht="14" thickBot="1">
       <c r="A595" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>8</v>
@@ -21349,7 +21349,7 @@
     </row>
     <row r="599" spans="1:11" ht="14" thickBot="1">
       <c r="A599" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>8</v>
@@ -21483,7 +21483,7 @@
     </row>
     <row r="603" spans="1:11" ht="14" thickBot="1">
       <c r="A603" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>8</v>
@@ -21617,7 +21617,7 @@
     </row>
     <row r="607" spans="1:11" ht="14" thickBot="1">
       <c r="A607" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>8</v>
@@ -21751,7 +21751,7 @@
     </row>
     <row r="611" spans="1:11" ht="14" thickBot="1">
       <c r="A611" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>8</v>
@@ -21885,7 +21885,7 @@
     </row>
     <row r="615" spans="1:11" ht="14" thickBot="1">
       <c r="A615" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B615" s="1" t="s">
         <v>8</v>
@@ -21966,22 +21966,22 @@
         <v>72</v>
       </c>
       <c r="F617" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G617" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H617" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I617" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J617" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K617" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="618" spans="1:11" ht="14" thickBot="1">
@@ -21999,13 +21999,13 @@
         <v>72</v>
       </c>
       <c r="F618" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G618" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H618" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I618" s="2" t="s">
         <v>27</v>
@@ -22019,7 +22019,7 @@
     </row>
     <row r="619" spans="1:11" ht="14" thickBot="1">
       <c r="A619" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>8</v>
@@ -22153,7 +22153,7 @@
     </row>
     <row r="623" spans="1:11" ht="14" thickBot="1">
       <c r="A623" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>8</v>
@@ -22287,7 +22287,7 @@
     </row>
     <row r="627" spans="1:11" ht="14" thickBot="1">
       <c r="A627" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B627" s="1" t="s">
         <v>8</v>
@@ -22421,7 +22421,7 @@
     </row>
     <row r="631" spans="1:11" ht="14" thickBot="1">
       <c r="A631" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B631" s="1" t="s">
         <v>8</v>
@@ -22555,7 +22555,7 @@
     </row>
     <row r="635" spans="1:11" ht="14" thickBot="1">
       <c r="A635" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B635" s="1" t="s">
         <v>8</v>
@@ -22689,7 +22689,7 @@
     </row>
     <row r="639" spans="1:11" ht="14" thickBot="1">
       <c r="A639" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B639" s="1" t="s">
         <v>8</v>
@@ -22823,7 +22823,7 @@
     </row>
     <row r="643" spans="1:11" ht="14" thickBot="1">
       <c r="A643" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B643" s="1" t="s">
         <v>8</v>
@@ -22880,13 +22880,13 @@
         <v>11</v>
       </c>
       <c r="I644" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J644" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J644" s="2" t="s">
+      <c r="K644" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="K644" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="645" spans="1:11" ht="14" thickBot="1">
@@ -22913,13 +22913,13 @@
         <v>13</v>
       </c>
       <c r="I645" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J645" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K645" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="J645" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="K645" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="646" spans="1:11" ht="14" thickBot="1">
@@ -22957,7 +22957,7 @@
     </row>
     <row r="647" spans="1:11" ht="14" thickBot="1">
       <c r="A647" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B647" s="1" t="s">
         <v>8</v>
@@ -23091,7 +23091,7 @@
     </row>
     <row r="651" spans="1:11" ht="14" thickBot="1">
       <c r="A651" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B651" s="1" t="s">
         <v>8</v>
@@ -23225,7 +23225,7 @@
     </row>
     <row r="655" spans="1:11" ht="14" thickBot="1">
       <c r="A655" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B655" s="1" t="s">
         <v>8</v>
@@ -23359,7 +23359,7 @@
     </row>
     <row r="659" spans="1:11" ht="14" thickBot="1">
       <c r="A659" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B659" s="1" t="s">
         <v>8</v>
@@ -23493,7 +23493,7 @@
     </row>
     <row r="663" spans="1:11" ht="14" thickBot="1">
       <c r="A663" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B663" s="1" t="s">
         <v>8</v>
@@ -23627,7 +23627,7 @@
     </row>
     <row r="667" spans="1:11" ht="14" thickBot="1">
       <c r="A667" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B667" s="1" t="s">
         <v>8</v>
@@ -23761,7 +23761,7 @@
     </row>
     <row r="671" spans="1:11" ht="14" thickBot="1">
       <c r="A671" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>8</v>
@@ -23895,7 +23895,7 @@
     </row>
     <row r="675" spans="1:11" ht="14" thickBot="1">
       <c r="A675" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B675" s="1" t="s">
         <v>8</v>
@@ -24029,7 +24029,7 @@
     </row>
     <row r="679" spans="1:11" ht="14" thickBot="1">
       <c r="A679" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B679" s="1" t="s">
         <v>8</v>
@@ -24163,7 +24163,7 @@
     </row>
     <row r="683" spans="1:11" ht="14" thickBot="1">
       <c r="A683" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B683" s="1" t="s">
         <v>8</v>
@@ -24297,7 +24297,7 @@
     </row>
     <row r="687" spans="1:11" ht="14" thickBot="1">
       <c r="A687" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B687" s="1" t="s">
         <v>8</v>
@@ -24431,7 +24431,7 @@
     </row>
     <row r="691" spans="1:11" ht="14" thickBot="1">
       <c r="A691" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B691" s="1" t="s">
         <v>8</v>
@@ -24565,7 +24565,7 @@
     </row>
     <row r="695" spans="1:11" ht="14" thickBot="1">
       <c r="A695" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>8</v>
@@ -24699,7 +24699,7 @@
     </row>
     <row r="699" spans="1:11" ht="14" thickBot="1">
       <c r="A699" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B699" s="1" t="s">
         <v>8</v>
@@ -24833,7 +24833,7 @@
     </row>
     <row r="703" spans="1:11" ht="14" thickBot="1">
       <c r="A703" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B703" s="1" t="s">
         <v>8</v>
@@ -24967,7 +24967,7 @@
     </row>
     <row r="707" spans="1:11" ht="14" thickBot="1">
       <c r="A707" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B707" s="1" t="s">
         <v>8</v>
@@ -25101,7 +25101,7 @@
     </row>
     <row r="711" spans="1:11" ht="14" thickBot="1">
       <c r="A711" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B711" s="1" t="s">
         <v>8</v>
@@ -25235,7 +25235,7 @@
     </row>
     <row r="715" spans="1:11" ht="14" thickBot="1">
       <c r="A715" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B715" s="1" t="s">
         <v>8</v>
@@ -25369,7 +25369,7 @@
     </row>
     <row r="719" spans="1:11" ht="14" thickBot="1">
       <c r="A719" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B719" s="1" t="s">
         <v>8</v>
@@ -25503,7 +25503,7 @@
     </row>
     <row r="723" spans="1:11" ht="14" thickBot="1">
       <c r="A723" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B723" s="1" t="s">
         <v>8</v>
@@ -25637,7 +25637,7 @@
     </row>
     <row r="727" spans="1:11" ht="14" thickBot="1">
       <c r="A727" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B727" s="1" t="s">
         <v>8</v>
@@ -25771,7 +25771,7 @@
     </row>
     <row r="731" spans="1:11" ht="14" thickBot="1">
       <c r="A731" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>8</v>
@@ -25905,7 +25905,7 @@
     </row>
     <row r="735" spans="1:11" ht="14" thickBot="1">
       <c r="A735" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B735" s="1" t="s">
         <v>8</v>
@@ -26039,7 +26039,7 @@
     </row>
     <row r="739" spans="1:11" ht="14" thickBot="1">
       <c r="A739" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B739" s="1" t="s">
         <v>8</v>
@@ -26173,7 +26173,7 @@
     </row>
     <row r="743" spans="1:11" ht="14" thickBot="1">
       <c r="A743" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B743" s="1" t="s">
         <v>8</v>
@@ -26307,7 +26307,7 @@
     </row>
     <row r="747" spans="1:11" ht="14" thickBot="1">
       <c r="A747" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B747" s="1" t="s">
         <v>8</v>
@@ -26441,7 +26441,7 @@
     </row>
     <row r="751" spans="1:11" ht="14" thickBot="1">
       <c r="A751" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>8</v>
@@ -26575,7 +26575,7 @@
     </row>
     <row r="755" spans="1:11" ht="14" thickBot="1">
       <c r="A755" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B755" s="1" t="s">
         <v>8</v>
@@ -26709,7 +26709,7 @@
     </row>
     <row r="759" spans="1:11" ht="14" thickBot="1">
       <c r="A759" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>8</v>
@@ -26843,7 +26843,7 @@
     </row>
     <row r="763" spans="1:11" ht="14" thickBot="1">
       <c r="A763" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B763" s="1" t="s">
         <v>8</v>
@@ -26977,7 +26977,7 @@
     </row>
     <row r="767" spans="1:11" ht="14" thickBot="1">
       <c r="A767" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B767" s="1" t="s">
         <v>8</v>
@@ -27111,7 +27111,7 @@
     </row>
     <row r="771" spans="1:11" ht="14" thickBot="1">
       <c r="A771" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>8</v>
@@ -27201,13 +27201,13 @@
         <v>23</v>
       </c>
       <c r="I773" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J773" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="J773" s="2" t="s">
+      <c r="K773" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="K773" s="2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="774" spans="1:11" ht="14" thickBot="1">
@@ -27245,7 +27245,7 @@
     </row>
     <row r="775" spans="1:11" ht="14" thickBot="1">
       <c r="A775" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B775" s="1" t="s">
         <v>8</v>
@@ -27335,13 +27335,13 @@
         <v>13</v>
       </c>
       <c r="I777" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J777" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K777" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="K777" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="778" spans="1:11" ht="14" thickBot="1">
@@ -27379,24 +27379,174 @@
     </row>
   </sheetData>
   <mergeCells count="198">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A755:A758"/>
+    <mergeCell ref="A759:A762"/>
+    <mergeCell ref="A763:A766"/>
+    <mergeCell ref="A767:A770"/>
+    <mergeCell ref="A771:A774"/>
+    <mergeCell ref="A775:A778"/>
+    <mergeCell ref="A731:A734"/>
+    <mergeCell ref="A735:A738"/>
+    <mergeCell ref="A739:A742"/>
+    <mergeCell ref="A743:A746"/>
+    <mergeCell ref="A747:A750"/>
+    <mergeCell ref="A751:A754"/>
+    <mergeCell ref="A707:A710"/>
+    <mergeCell ref="A711:A714"/>
+    <mergeCell ref="A715:A718"/>
+    <mergeCell ref="A719:A722"/>
+    <mergeCell ref="A723:A726"/>
+    <mergeCell ref="A727:A730"/>
+    <mergeCell ref="A683:A686"/>
+    <mergeCell ref="A687:A690"/>
+    <mergeCell ref="A691:A694"/>
+    <mergeCell ref="A695:A698"/>
+    <mergeCell ref="A699:A702"/>
+    <mergeCell ref="A703:A706"/>
+    <mergeCell ref="A659:A662"/>
+    <mergeCell ref="A663:A666"/>
+    <mergeCell ref="A667:A670"/>
+    <mergeCell ref="A671:A674"/>
+    <mergeCell ref="A675:A678"/>
+    <mergeCell ref="A679:A682"/>
+    <mergeCell ref="A635:A638"/>
+    <mergeCell ref="A639:A642"/>
+    <mergeCell ref="A643:A646"/>
+    <mergeCell ref="A647:A650"/>
+    <mergeCell ref="A651:A654"/>
+    <mergeCell ref="A655:A658"/>
+    <mergeCell ref="A611:A614"/>
+    <mergeCell ref="A615:A618"/>
+    <mergeCell ref="A619:A622"/>
+    <mergeCell ref="A623:A626"/>
+    <mergeCell ref="A627:A630"/>
+    <mergeCell ref="A631:A634"/>
+    <mergeCell ref="A587:A590"/>
+    <mergeCell ref="A591:A594"/>
+    <mergeCell ref="A595:A598"/>
+    <mergeCell ref="A599:A602"/>
+    <mergeCell ref="A603:A606"/>
+    <mergeCell ref="A607:A610"/>
+    <mergeCell ref="A563:A566"/>
+    <mergeCell ref="A567:A570"/>
+    <mergeCell ref="A571:A574"/>
+    <mergeCell ref="A575:A578"/>
+    <mergeCell ref="A579:A582"/>
+    <mergeCell ref="A583:A586"/>
+    <mergeCell ref="A539:A542"/>
+    <mergeCell ref="A543:A546"/>
+    <mergeCell ref="A547:A550"/>
+    <mergeCell ref="A551:A554"/>
+    <mergeCell ref="A555:A558"/>
+    <mergeCell ref="A559:A562"/>
+    <mergeCell ref="A515:A518"/>
+    <mergeCell ref="A519:A522"/>
+    <mergeCell ref="A523:A526"/>
+    <mergeCell ref="A527:A530"/>
+    <mergeCell ref="A531:A534"/>
+    <mergeCell ref="A535:A538"/>
+    <mergeCell ref="A491:A494"/>
+    <mergeCell ref="A495:A498"/>
+    <mergeCell ref="A499:A502"/>
+    <mergeCell ref="A503:A506"/>
+    <mergeCell ref="A507:A510"/>
+    <mergeCell ref="A511:A514"/>
+    <mergeCell ref="A467:A470"/>
+    <mergeCell ref="A471:A474"/>
+    <mergeCell ref="A475:A478"/>
+    <mergeCell ref="A479:A482"/>
+    <mergeCell ref="A483:A486"/>
+    <mergeCell ref="A487:A490"/>
+    <mergeCell ref="A443:A446"/>
+    <mergeCell ref="A447:A450"/>
+    <mergeCell ref="A451:A454"/>
+    <mergeCell ref="A455:A458"/>
+    <mergeCell ref="A459:A462"/>
+    <mergeCell ref="A463:A466"/>
+    <mergeCell ref="A419:A422"/>
+    <mergeCell ref="A423:A426"/>
+    <mergeCell ref="A427:A430"/>
+    <mergeCell ref="A431:A434"/>
+    <mergeCell ref="A435:A438"/>
+    <mergeCell ref="A439:A442"/>
+    <mergeCell ref="A395:A398"/>
+    <mergeCell ref="A399:A402"/>
+    <mergeCell ref="A403:A406"/>
+    <mergeCell ref="A407:A410"/>
+    <mergeCell ref="A411:A414"/>
+    <mergeCell ref="A415:A418"/>
+    <mergeCell ref="A371:A374"/>
+    <mergeCell ref="A375:A378"/>
+    <mergeCell ref="A379:A382"/>
+    <mergeCell ref="A383:A386"/>
+    <mergeCell ref="A387:A390"/>
+    <mergeCell ref="A391:A394"/>
+    <mergeCell ref="A347:A350"/>
+    <mergeCell ref="A351:A354"/>
+    <mergeCell ref="A355:A358"/>
+    <mergeCell ref="A359:A362"/>
+    <mergeCell ref="A363:A366"/>
+    <mergeCell ref="A367:A370"/>
+    <mergeCell ref="A323:A326"/>
+    <mergeCell ref="A327:A330"/>
+    <mergeCell ref="A331:A334"/>
+    <mergeCell ref="A335:A338"/>
+    <mergeCell ref="A339:A342"/>
+    <mergeCell ref="A343:A346"/>
+    <mergeCell ref="A299:A302"/>
+    <mergeCell ref="A303:A306"/>
+    <mergeCell ref="A307:A310"/>
+    <mergeCell ref="A311:A314"/>
+    <mergeCell ref="A315:A318"/>
+    <mergeCell ref="A319:A322"/>
+    <mergeCell ref="A275:A278"/>
+    <mergeCell ref="A279:A282"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="A287:A290"/>
+    <mergeCell ref="A291:A294"/>
+    <mergeCell ref="A295:A298"/>
+    <mergeCell ref="A251:A254"/>
+    <mergeCell ref="A255:A258"/>
+    <mergeCell ref="A259:A262"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="A267:A270"/>
+    <mergeCell ref="A271:A274"/>
+    <mergeCell ref="A227:A230"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="A239:A242"/>
+    <mergeCell ref="A243:A246"/>
+    <mergeCell ref="A247:A250"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="A207:A210"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="A215:A218"/>
+    <mergeCell ref="A219:A222"/>
+    <mergeCell ref="A223:A226"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A183:A186"/>
+    <mergeCell ref="A187:A190"/>
+    <mergeCell ref="A191:A194"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="A199:A202"/>
+    <mergeCell ref="A155:A158"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="A167:A170"/>
+    <mergeCell ref="A171:A174"/>
+    <mergeCell ref="A175:A178"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A147:A150"/>
+    <mergeCell ref="A151:A154"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="A127:A130"/>
     <mergeCell ref="A83:A86"/>
     <mergeCell ref="A87:A90"/>
     <mergeCell ref="A91:A94"/>
@@ -27409,174 +27559,24 @@
     <mergeCell ref="A71:A74"/>
     <mergeCell ref="A75:A78"/>
     <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A147:A150"/>
-    <mergeCell ref="A151:A154"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A183:A186"/>
-    <mergeCell ref="A187:A190"/>
-    <mergeCell ref="A191:A194"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="A199:A202"/>
-    <mergeCell ref="A155:A158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="A167:A170"/>
-    <mergeCell ref="A171:A174"/>
-    <mergeCell ref="A175:A178"/>
-    <mergeCell ref="A227:A230"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="A239:A242"/>
-    <mergeCell ref="A243:A246"/>
-    <mergeCell ref="A247:A250"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="A207:A210"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="A215:A218"/>
-    <mergeCell ref="A219:A222"/>
-    <mergeCell ref="A223:A226"/>
-    <mergeCell ref="A275:A278"/>
-    <mergeCell ref="A279:A282"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="A287:A290"/>
-    <mergeCell ref="A291:A294"/>
-    <mergeCell ref="A295:A298"/>
-    <mergeCell ref="A251:A254"/>
-    <mergeCell ref="A255:A258"/>
-    <mergeCell ref="A259:A262"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="A267:A270"/>
-    <mergeCell ref="A271:A274"/>
-    <mergeCell ref="A323:A326"/>
-    <mergeCell ref="A327:A330"/>
-    <mergeCell ref="A331:A334"/>
-    <mergeCell ref="A335:A338"/>
-    <mergeCell ref="A339:A342"/>
-    <mergeCell ref="A343:A346"/>
-    <mergeCell ref="A299:A302"/>
-    <mergeCell ref="A303:A306"/>
-    <mergeCell ref="A307:A310"/>
-    <mergeCell ref="A311:A314"/>
-    <mergeCell ref="A315:A318"/>
-    <mergeCell ref="A319:A322"/>
-    <mergeCell ref="A371:A374"/>
-    <mergeCell ref="A375:A378"/>
-    <mergeCell ref="A379:A382"/>
-    <mergeCell ref="A383:A386"/>
-    <mergeCell ref="A387:A390"/>
-    <mergeCell ref="A391:A394"/>
-    <mergeCell ref="A347:A350"/>
-    <mergeCell ref="A351:A354"/>
-    <mergeCell ref="A355:A358"/>
-    <mergeCell ref="A359:A362"/>
-    <mergeCell ref="A363:A366"/>
-    <mergeCell ref="A367:A370"/>
-    <mergeCell ref="A419:A422"/>
-    <mergeCell ref="A423:A426"/>
-    <mergeCell ref="A427:A430"/>
-    <mergeCell ref="A431:A434"/>
-    <mergeCell ref="A435:A438"/>
-    <mergeCell ref="A439:A442"/>
-    <mergeCell ref="A395:A398"/>
-    <mergeCell ref="A399:A402"/>
-    <mergeCell ref="A403:A406"/>
-    <mergeCell ref="A407:A410"/>
-    <mergeCell ref="A411:A414"/>
-    <mergeCell ref="A415:A418"/>
-    <mergeCell ref="A467:A470"/>
-    <mergeCell ref="A471:A474"/>
-    <mergeCell ref="A475:A478"/>
-    <mergeCell ref="A479:A482"/>
-    <mergeCell ref="A483:A486"/>
-    <mergeCell ref="A487:A490"/>
-    <mergeCell ref="A443:A446"/>
-    <mergeCell ref="A447:A450"/>
-    <mergeCell ref="A451:A454"/>
-    <mergeCell ref="A455:A458"/>
-    <mergeCell ref="A459:A462"/>
-    <mergeCell ref="A463:A466"/>
-    <mergeCell ref="A515:A518"/>
-    <mergeCell ref="A519:A522"/>
-    <mergeCell ref="A523:A526"/>
-    <mergeCell ref="A527:A530"/>
-    <mergeCell ref="A531:A534"/>
-    <mergeCell ref="A535:A538"/>
-    <mergeCell ref="A491:A494"/>
-    <mergeCell ref="A495:A498"/>
-    <mergeCell ref="A499:A502"/>
-    <mergeCell ref="A503:A506"/>
-    <mergeCell ref="A507:A510"/>
-    <mergeCell ref="A511:A514"/>
-    <mergeCell ref="A563:A566"/>
-    <mergeCell ref="A567:A570"/>
-    <mergeCell ref="A571:A574"/>
-    <mergeCell ref="A575:A578"/>
-    <mergeCell ref="A579:A582"/>
-    <mergeCell ref="A583:A586"/>
-    <mergeCell ref="A539:A542"/>
-    <mergeCell ref="A543:A546"/>
-    <mergeCell ref="A547:A550"/>
-    <mergeCell ref="A551:A554"/>
-    <mergeCell ref="A555:A558"/>
-    <mergeCell ref="A559:A562"/>
-    <mergeCell ref="A611:A614"/>
-    <mergeCell ref="A615:A618"/>
-    <mergeCell ref="A619:A622"/>
-    <mergeCell ref="A623:A626"/>
-    <mergeCell ref="A627:A630"/>
-    <mergeCell ref="A631:A634"/>
-    <mergeCell ref="A587:A590"/>
-    <mergeCell ref="A591:A594"/>
-    <mergeCell ref="A595:A598"/>
-    <mergeCell ref="A599:A602"/>
-    <mergeCell ref="A603:A606"/>
-    <mergeCell ref="A607:A610"/>
-    <mergeCell ref="A659:A662"/>
-    <mergeCell ref="A663:A666"/>
-    <mergeCell ref="A667:A670"/>
-    <mergeCell ref="A671:A674"/>
-    <mergeCell ref="A675:A678"/>
-    <mergeCell ref="A679:A682"/>
-    <mergeCell ref="A635:A638"/>
-    <mergeCell ref="A639:A642"/>
-    <mergeCell ref="A643:A646"/>
-    <mergeCell ref="A647:A650"/>
-    <mergeCell ref="A651:A654"/>
-    <mergeCell ref="A655:A658"/>
-    <mergeCell ref="A707:A710"/>
-    <mergeCell ref="A711:A714"/>
-    <mergeCell ref="A715:A718"/>
-    <mergeCell ref="A719:A722"/>
-    <mergeCell ref="A723:A726"/>
-    <mergeCell ref="A727:A730"/>
-    <mergeCell ref="A683:A686"/>
-    <mergeCell ref="A687:A690"/>
-    <mergeCell ref="A691:A694"/>
-    <mergeCell ref="A695:A698"/>
-    <mergeCell ref="A699:A702"/>
-    <mergeCell ref="A703:A706"/>
-    <mergeCell ref="A755:A758"/>
-    <mergeCell ref="A759:A762"/>
-    <mergeCell ref="A763:A766"/>
-    <mergeCell ref="A767:A770"/>
-    <mergeCell ref="A771:A774"/>
-    <mergeCell ref="A775:A778"/>
-    <mergeCell ref="A731:A734"/>
-    <mergeCell ref="A735:A738"/>
-    <mergeCell ref="A739:A742"/>
-    <mergeCell ref="A743:A746"/>
-    <mergeCell ref="A747:A750"/>
-    <mergeCell ref="A751:A754"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
